--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G197" s="2" t="b">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14149,237 +14149,237 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>24</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" t="n">
         <v>42</v>
       </c>
-      <c r="B460" s="2" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" s="2" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" s="2" t="n">
+      <c r="D460" t="n">
         <v>3</v>
       </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="2" t="inlineStr">
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K460" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" t="n">
         <v>42</v>
       </c>
-      <c r="B461" s="2" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" s="2" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" s="2" t="n">
+      <c r="D461" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L461" s="2" t="inlineStr">
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K461" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" t="n">
         <v>42</v>
       </c>
-      <c r="B462" s="2" t="inlineStr">
+      <c r="B462" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" s="2" t="inlineStr">
+      <c r="C462" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" s="2" t="n">
+      <c r="D462" t="n">
         <v>5</v>
       </c>
-      <c r="E462" s="2" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" s="2" t="inlineStr">
+      <c r="F462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L462" s="2" t="inlineStr">
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G197" s="2" t="b">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14149,237 +14149,237 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>24</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>24</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>24</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>24</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>42</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Interference</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J457" s="2" t="inlineStr">
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B460" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C460" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J460" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K457" s="2" t="b">
+      <c r="K460" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L457" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="L460" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B461" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
-        <is>
-          <t>Interference</t>
-        </is>
-      </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
+      <c r="C461" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J458" s="2" t="inlineStr">
+      <c r="J461" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K458" s="2" t="b">
+      <c r="K461" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
+      <c r="L461" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B462" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>42</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>3</v>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>42</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D461" t="n">
-        <v>4</v>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" t="b">
-        <v>1</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K461" t="b">
-        <v>1</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>42</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
+      <c r="C462" s="2" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E462" t="inlineStr">
+      <c r="E462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" t="inlineStr">
+      <c r="F462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
+      <c r="G462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L462" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
